--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_架构组.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="10635" tabRatio="813"/>
@@ -13,13 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.0 新特性|Fix Bug'!$A$1:$U$15</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <oleSize ref="B1:M13"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -114,12 +113,31 @@
     <t>支付平台新增是否使用信用卡字段</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>新增renterpc、renter日志分离文件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc、renter</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无代码 不需要测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -388,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,9 +549,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,14 +966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="4" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="4" customWidth="1"/>
@@ -984,7 +999,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="27">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1049,9 +1064,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
@@ -1059,7 +1074,7 @@
       <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1099,31 +1114,57 @@
       <c r="U2" s="24"/>
       <c r="V2" s="23"/>
     </row>
-    <row r="3" spans="1:16384" s="52" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="11"/>
+    <row r="3" spans="1:22" s="51" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="41">
+        <v>42732</v>
+      </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="L3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="N3" s="45"/>
       <c r="O3" s="16"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
-    </row>
-    <row r="4" spans="1:16384" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="50"/>
+    </row>
+    <row r="4" spans="1:22" ht="21.75" customHeight="1">
       <c r="A4" s="37"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1135,7 +1176,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="53"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="19"/>
       <c r="N4" s="45"/>
       <c r="O4" s="16"/>
@@ -1145,9 +1186,8 @@
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="17"/>
-      <c r="V4"/>
-    </row>
-    <row r="5" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="37"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1169,57 +1209,56 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="17"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:16384" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="37"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="56"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="56"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="39"/>
       <c r="L6" s="42"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="42"/>
-      <c r="P6" s="56"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="57"/>
+      <c r="U6" s="56"/>
       <c r="V6" s="23"/>
     </row>
-    <row r="7" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A7" s="37"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="56"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="56"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="39"/>
       <c r="L7" s="42"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="42"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="21"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="57"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -1241,9 +1280,8 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="17"/>
-      <c r="V8"/>
-    </row>
-    <row r="9" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1265,9 +1303,8 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="17"/>
-      <c r="V9"/>
-    </row>
-    <row r="10" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -1289,9 +1326,8 @@
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="17"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -1315,7 +1351,7 @@
       <c r="U11" s="35"/>
       <c r="V11" s="23"/>
     </row>
-    <row r="12" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -1339,7 +1375,7 @@
       <c r="U12" s="35"/>
       <c r="V12" s="23"/>
     </row>
-    <row r="13" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -1363,7 +1399,7 @@
       <c r="U13" s="35"/>
       <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -1387,7 +1423,7 @@
       <c r="U14" s="35"/>
       <c r="V14" s="23"/>
     </row>
-    <row r="15" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -1411,7 +1447,7 @@
       <c r="U15" s="35"/>
       <c r="V15" s="23"/>
     </row>
-    <row r="16" spans="1:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -1435,7 +1471,7 @@
       <c r="U16" s="35"/>
       <c r="V16" s="23"/>
     </row>
-    <row r="17" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1457,9 +1493,8 @@
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="24"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1481,9 +1516,8 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="24"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1505,9 +1539,8 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="27"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1529,9 +1562,8 @@
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
       <c r="U20" s="27"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1553,9 +1585,8 @@
       <c r="S21" s="28"/>
       <c r="T21" s="29"/>
       <c r="U21" s="27"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1577,9 +1608,8 @@
       <c r="S22" s="28"/>
       <c r="T22" s="28"/>
       <c r="U22" s="27"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1601,9 +1631,8 @@
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
       <c r="U23" s="27"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1625,9 +1654,8 @@
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
       <c r="U24" s="19"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1649,9 +1677,8 @@
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
       <c r="U25" s="24"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1673,9 +1700,8 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="24"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1697,9 +1723,8 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="24"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1721,9 +1746,8 @@
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
       <c r="U28" s="27"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1745,9 +1769,8 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="22"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1769,9 +1792,8 @@
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="24"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1793,9 +1815,8 @@
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="24"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1817,9 +1838,8 @@
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="24"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1841,9 +1861,8 @@
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="24"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1865,9 +1884,8 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
       <c r="U34" s="24"/>
-      <c r="V34"/>
-    </row>
-    <row r="35" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1889,9 +1907,8 @@
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
       <c r="U35" s="24"/>
-      <c r="V35"/>
-    </row>
-    <row r="36" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1913,9 +1930,8 @@
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="24"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1937,9 +1953,8 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="24"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1961,9 +1976,8 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="24"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1985,9 +1999,8 @@
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
       <c r="U39" s="24"/>
-      <c r="V39"/>
-    </row>
-    <row r="40" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2009,9 +2022,8 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
       <c r="U40" s="24"/>
-      <c r="V40"/>
-    </row>
-    <row r="41" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2033,9 +2045,8 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
       <c r="U41" s="24"/>
-      <c r="V41"/>
-    </row>
-    <row r="42" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2057,9 +2068,8 @@
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
       <c r="U42" s="17"/>
-      <c r="V42"/>
-    </row>
-    <row r="43" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2081,9 +2091,8 @@
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
       <c r="U43" s="17"/>
-      <c r="V43"/>
-    </row>
-    <row r="44" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2105,9 +2114,8 @@
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
       <c r="U44" s="17"/>
-      <c r="V44"/>
-    </row>
-    <row r="45" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2129,9 +2137,8 @@
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="17"/>
-      <c r="V45"/>
-    </row>
-    <row r="46" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2153,9 +2160,8 @@
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
       <c r="U46" s="17"/>
-      <c r="V46"/>
-    </row>
-    <row r="47" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2177,9 +2183,8 @@
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
       <c r="U47" s="17"/>
-      <c r="V47"/>
-    </row>
-    <row r="48" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2201,9 +2206,8 @@
       <c r="S48" s="16"/>
       <c r="T48" s="16"/>
       <c r="U48" s="17"/>
-      <c r="V48"/>
-    </row>
-    <row r="49" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -2225,9 +2229,8 @@
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
       <c r="U49" s="17"/>
-      <c r="V49"/>
-    </row>
-    <row r="50" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -2249,9 +2252,8 @@
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
       <c r="U50" s="17"/>
-      <c r="V50"/>
-    </row>
-    <row r="51" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -2273,9 +2275,8 @@
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
       <c r="U51" s="17"/>
-      <c r="V51"/>
-    </row>
-    <row r="52" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -2297,9 +2298,8 @@
       <c r="S52" s="16"/>
       <c r="T52" s="16"/>
       <c r="U52" s="17"/>
-      <c r="V52"/>
-    </row>
-    <row r="53" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -2321,9 +2321,8 @@
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
       <c r="U53" s="17"/>
-      <c r="V53"/>
-    </row>
-    <row r="54" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -2345,9 +2344,8 @@
       <c r="S54" s="16"/>
       <c r="T54" s="16"/>
       <c r="U54" s="17"/>
-      <c r="V54"/>
-    </row>
-    <row r="55" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -2369,9 +2367,8 @@
       <c r="S55" s="16"/>
       <c r="T55" s="16"/>
       <c r="U55" s="17"/>
-      <c r="V55"/>
-    </row>
-    <row r="56" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -2393,9 +2390,8 @@
       <c r="S56" s="16"/>
       <c r="T56" s="16"/>
       <c r="U56" s="17"/>
-      <c r="V56"/>
-    </row>
-    <row r="57" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -2417,9 +2413,8 @@
       <c r="S57" s="16"/>
       <c r="T57" s="16"/>
       <c r="U57" s="17"/>
-      <c r="V57"/>
-    </row>
-    <row r="58" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2441,9 +2436,8 @@
       <c r="S58" s="16"/>
       <c r="T58" s="16"/>
       <c r="U58" s="17"/>
-      <c r="V58"/>
-    </row>
-    <row r="59" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -2465,9 +2459,8 @@
       <c r="S59" s="16"/>
       <c r="T59" s="16"/>
       <c r="U59" s="17"/>
-      <c r="V59"/>
-    </row>
-    <row r="60" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2489,9 +2482,8 @@
       <c r="S60" s="16"/>
       <c r="T60" s="16"/>
       <c r="U60" s="17"/>
-      <c r="V60"/>
-    </row>
-    <row r="61" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -2513,9 +2505,8 @@
       <c r="S61" s="16"/>
       <c r="T61" s="16"/>
       <c r="U61" s="17"/>
-      <c r="V61"/>
-    </row>
-    <row r="62" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2537,9 +2528,8 @@
       <c r="S62" s="16"/>
       <c r="T62" s="16"/>
       <c r="U62" s="17"/>
-      <c r="V62"/>
-    </row>
-    <row r="63" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -2561,9 +2551,8 @@
       <c r="S63" s="16"/>
       <c r="T63" s="16"/>
       <c r="U63" s="17"/>
-      <c r="V63"/>
-    </row>
-    <row r="64" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -2585,9 +2574,8 @@
       <c r="S64" s="16"/>
       <c r="T64" s="16"/>
       <c r="U64" s="17"/>
-      <c r="V64"/>
-    </row>
-    <row r="65" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -2609,9 +2597,8 @@
       <c r="S65" s="16"/>
       <c r="T65" s="16"/>
       <c r="U65" s="17"/>
-      <c r="V65"/>
-    </row>
-    <row r="66" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -2633,9 +2620,8 @@
       <c r="S66" s="16"/>
       <c r="T66" s="16"/>
       <c r="U66" s="17"/>
-      <c r="V66"/>
-    </row>
-    <row r="67" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -2657,9 +2643,8 @@
       <c r="S67" s="16"/>
       <c r="T67" s="16"/>
       <c r="U67" s="17"/>
-      <c r="V67"/>
-    </row>
-    <row r="68" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -2681,9 +2666,8 @@
       <c r="S68" s="16"/>
       <c r="T68" s="16"/>
       <c r="U68" s="17"/>
-      <c r="V68"/>
-    </row>
-    <row r="69" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -2705,9 +2689,8 @@
       <c r="S69" s="16"/>
       <c r="T69" s="16"/>
       <c r="U69" s="17"/>
-      <c r="V69"/>
-    </row>
-    <row r="70" spans="1:16384" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -2729,9 +2712,8 @@
       <c r="S70" s="16"/>
       <c r="T70" s="16"/>
       <c r="U70" s="17"/>
-      <c r="V70"/>
-    </row>
-    <row r="71" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -2753,9 +2735,8 @@
       <c r="S71" s="16"/>
       <c r="T71" s="16"/>
       <c r="U71" s="17"/>
-      <c r="V71"/>
-    </row>
-    <row r="72" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2777,9 +2758,8 @@
       <c r="S72" s="16"/>
       <c r="T72" s="16"/>
       <c r="U72" s="17"/>
-      <c r="V72"/>
-    </row>
-    <row r="73" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -2801,9 +2781,8 @@
       <c r="S73" s="16"/>
       <c r="T73" s="16"/>
       <c r="U73" s="17"/>
-      <c r="V73"/>
-    </row>
-    <row r="74" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -2825,9 +2804,8 @@
       <c r="S74" s="16"/>
       <c r="T74" s="16"/>
       <c r="U74" s="17"/>
-      <c r="V74"/>
-    </row>
-    <row r="75" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -2849,9 +2827,8 @@
       <c r="S75" s="16"/>
       <c r="T75" s="16"/>
       <c r="U75" s="17"/>
-      <c r="V75"/>
-    </row>
-    <row r="76" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -2873,9 +2850,8 @@
       <c r="S76" s="16"/>
       <c r="T76" s="16"/>
       <c r="U76" s="17"/>
-      <c r="V76"/>
-    </row>
-    <row r="77" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -2897,9 +2873,8 @@
       <c r="S77" s="16"/>
       <c r="T77" s="16"/>
       <c r="U77" s="17"/>
-      <c r="V77"/>
-    </row>
-    <row r="78" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -2921,9 +2896,8 @@
       <c r="S78" s="16"/>
       <c r="T78" s="16"/>
       <c r="U78" s="17"/>
-      <c r="V78"/>
-    </row>
-    <row r="79" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -2945,9 +2919,8 @@
       <c r="S79" s="16"/>
       <c r="T79" s="16"/>
       <c r="U79" s="17"/>
-      <c r="V79"/>
-    </row>
-    <row r="80" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -2969,9 +2942,8 @@
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
       <c r="U80" s="17"/>
-      <c r="V80"/>
-    </row>
-    <row r="81" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -2993,9 +2965,8 @@
       <c r="S81" s="16"/>
       <c r="T81" s="16"/>
       <c r="U81" s="17"/>
-      <c r="V81"/>
-    </row>
-    <row r="82" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -3017,9 +2988,8 @@
       <c r="S82" s="16"/>
       <c r="T82" s="16"/>
       <c r="U82" s="17"/>
-      <c r="V82"/>
-    </row>
-    <row r="83" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -3041,9 +3011,8 @@
       <c r="S83" s="16"/>
       <c r="T83" s="16"/>
       <c r="U83" s="17"/>
-      <c r="V83"/>
-    </row>
-    <row r="84" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -3065,9 +3034,8 @@
       <c r="S84" s="16"/>
       <c r="T84" s="16"/>
       <c r="U84" s="17"/>
-      <c r="V84"/>
-    </row>
-    <row r="85" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -3089,9 +3057,8 @@
       <c r="S85" s="16"/>
       <c r="T85" s="16"/>
       <c r="U85" s="17"/>
-      <c r="V85"/>
-    </row>
-    <row r="86" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -3113,9 +3080,8 @@
       <c r="S86" s="16"/>
       <c r="T86" s="16"/>
       <c r="U86" s="17"/>
-      <c r="V86"/>
-    </row>
-    <row r="87" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -3137,9 +3103,8 @@
       <c r="S87" s="16"/>
       <c r="T87" s="16"/>
       <c r="U87" s="17"/>
-      <c r="V87"/>
-    </row>
-    <row r="88" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -3161,9 +3126,8 @@
       <c r="S88" s="16"/>
       <c r="T88" s="16"/>
       <c r="U88" s="17"/>
-      <c r="V88"/>
-    </row>
-    <row r="89" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -3185,9 +3149,8 @@
       <c r="S89" s="16"/>
       <c r="T89" s="16"/>
       <c r="U89" s="17"/>
-      <c r="V89"/>
-    </row>
-    <row r="90" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -3209,9 +3172,8 @@
       <c r="S90" s="16"/>
       <c r="T90" s="16"/>
       <c r="U90" s="17"/>
-      <c r="V90"/>
-    </row>
-    <row r="91" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -3233,9 +3195,8 @@
       <c r="S91" s="16"/>
       <c r="T91" s="16"/>
       <c r="U91" s="17"/>
-      <c r="V91"/>
-    </row>
-    <row r="92" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -3257,9 +3218,8 @@
       <c r="S92" s="16"/>
       <c r="T92" s="16"/>
       <c r="U92" s="17"/>
-      <c r="V92"/>
-    </row>
-    <row r="93" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -3281,9 +3241,8 @@
       <c r="S93" s="16"/>
       <c r="T93" s="16"/>
       <c r="U93" s="17"/>
-      <c r="V93"/>
-    </row>
-    <row r="94" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -3305,9 +3264,8 @@
       <c r="S94" s="16"/>
       <c r="T94" s="16"/>
       <c r="U94" s="17"/>
-      <c r="V94"/>
-    </row>
-    <row r="95" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -3329,9 +3287,8 @@
       <c r="S95" s="16"/>
       <c r="T95" s="16"/>
       <c r="U95" s="17"/>
-      <c r="V95"/>
-    </row>
-    <row r="96" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -3353,9 +3310,8 @@
       <c r="S96" s="16"/>
       <c r="T96" s="16"/>
       <c r="U96" s="17"/>
-      <c r="V96"/>
-    </row>
-    <row r="97" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -3377,9 +3333,8 @@
       <c r="S97" s="16"/>
       <c r="T97" s="16"/>
       <c r="U97" s="17"/>
-      <c r="V97"/>
-    </row>
-    <row r="98" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -3401,9 +3356,8 @@
       <c r="S98" s="16"/>
       <c r="T98" s="16"/>
       <c r="U98" s="17"/>
-      <c r="V98"/>
-    </row>
-    <row r="99" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -3425,9 +3379,8 @@
       <c r="S99" s="16"/>
       <c r="T99" s="16"/>
       <c r="U99" s="17"/>
-      <c r="V99"/>
-    </row>
-    <row r="100" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -3449,9 +3402,8 @@
       <c r="S100" s="16"/>
       <c r="T100" s="16"/>
       <c r="U100" s="17"/>
-      <c r="V100"/>
-    </row>
-    <row r="101" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -3473,9 +3425,8 @@
       <c r="S101" s="16"/>
       <c r="T101" s="16"/>
       <c r="U101" s="17"/>
-      <c r="V101"/>
-    </row>
-    <row r="102" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -3497,9 +3448,8 @@
       <c r="S102" s="16"/>
       <c r="T102" s="16"/>
       <c r="U102" s="17"/>
-      <c r="V102"/>
-    </row>
-    <row r="103" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -3521,9 +3471,8 @@
       <c r="S103" s="16"/>
       <c r="T103" s="16"/>
       <c r="U103" s="17"/>
-      <c r="V103"/>
-    </row>
-    <row r="104" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -3545,9 +3494,8 @@
       <c r="S104" s="16"/>
       <c r="T104" s="16"/>
       <c r="U104" s="17"/>
-      <c r="V104"/>
-    </row>
-    <row r="105" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -3569,9 +3517,8 @@
       <c r="S105" s="16"/>
       <c r="T105" s="16"/>
       <c r="U105" s="17"/>
-      <c r="V105"/>
-    </row>
-    <row r="106" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -3593,9 +3540,8 @@
       <c r="S106" s="16"/>
       <c r="T106" s="16"/>
       <c r="U106" s="17"/>
-      <c r="V106"/>
-    </row>
-    <row r="107" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -3617,9 +3563,8 @@
       <c r="S107" s="16"/>
       <c r="T107" s="16"/>
       <c r="U107" s="17"/>
-      <c r="V107"/>
-    </row>
-    <row r="108" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -3641,9 +3586,8 @@
       <c r="S108" s="16"/>
       <c r="T108" s="16"/>
       <c r="U108" s="17"/>
-      <c r="V108"/>
-    </row>
-    <row r="109" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -3665,9 +3609,8 @@
       <c r="S109" s="16"/>
       <c r="T109" s="16"/>
       <c r="U109" s="17"/>
-      <c r="V109"/>
-    </row>
-    <row r="110" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -3689,9 +3632,8 @@
       <c r="S110" s="16"/>
       <c r="T110" s="16"/>
       <c r="U110" s="17"/>
-      <c r="V110"/>
-    </row>
-    <row r="111" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -3713,9 +3655,8 @@
       <c r="S111" s="16"/>
       <c r="T111" s="16"/>
       <c r="U111" s="17"/>
-      <c r="V111"/>
-    </row>
-    <row r="112" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -3737,9 +3678,8 @@
       <c r="S112" s="16"/>
       <c r="T112" s="16"/>
       <c r="U112" s="17"/>
-      <c r="V112"/>
-    </row>
-    <row r="113" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3761,9 +3701,8 @@
       <c r="S113" s="16"/>
       <c r="T113" s="16"/>
       <c r="U113" s="17"/>
-      <c r="V113"/>
-    </row>
-    <row r="114" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -3785,9 +3724,8 @@
       <c r="S114" s="16"/>
       <c r="T114" s="16"/>
       <c r="U114" s="17"/>
-      <c r="V114"/>
-    </row>
-    <row r="115" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -3809,9 +3747,8 @@
       <c r="S115" s="16"/>
       <c r="T115" s="16"/>
       <c r="U115" s="17"/>
-      <c r="V115"/>
-    </row>
-    <row r="116" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -3833,9 +3770,8 @@
       <c r="S116" s="16"/>
       <c r="T116" s="16"/>
       <c r="U116" s="17"/>
-      <c r="V116"/>
-    </row>
-    <row r="117" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -3857,9 +3793,8 @@
       <c r="S117" s="16"/>
       <c r="T117" s="16"/>
       <c r="U117" s="17"/>
-      <c r="V117"/>
-    </row>
-    <row r="118" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -3881,9 +3816,8 @@
       <c r="S118" s="16"/>
       <c r="T118" s="16"/>
       <c r="U118" s="17"/>
-      <c r="V118"/>
-    </row>
-    <row r="119" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -3905,9 +3839,8 @@
       <c r="S119" s="16"/>
       <c r="T119" s="16"/>
       <c r="U119" s="17"/>
-      <c r="V119"/>
-    </row>
-    <row r="120" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -3929,9 +3862,8 @@
       <c r="S120" s="16"/>
       <c r="T120" s="16"/>
       <c r="U120" s="17"/>
-      <c r="V120"/>
-    </row>
-    <row r="121" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -3953,9 +3885,8 @@
       <c r="S121" s="16"/>
       <c r="T121" s="16"/>
       <c r="U121" s="17"/>
-      <c r="V121"/>
-    </row>
-    <row r="122" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -3977,9 +3908,8 @@
       <c r="S122" s="16"/>
       <c r="T122" s="16"/>
       <c r="U122" s="17"/>
-      <c r="V122"/>
-    </row>
-    <row r="123" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -4001,9 +3931,8 @@
       <c r="S123" s="16"/>
       <c r="T123" s="16"/>
       <c r="U123" s="17"/>
-      <c r="V123"/>
-    </row>
-    <row r="124" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -4025,9 +3954,8 @@
       <c r="S124" s="16"/>
       <c r="T124" s="16"/>
       <c r="U124" s="17"/>
-      <c r="V124"/>
-    </row>
-    <row r="125" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -4049,9 +3977,8 @@
       <c r="S125" s="16"/>
       <c r="T125" s="16"/>
       <c r="U125" s="17"/>
-      <c r="V125"/>
-    </row>
-    <row r="126" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -4073,9 +4000,8 @@
       <c r="S126" s="16"/>
       <c r="T126" s="16"/>
       <c r="U126" s="17"/>
-      <c r="V126"/>
-    </row>
-    <row r="127" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -4097,9 +4023,8 @@
       <c r="S127" s="16"/>
       <c r="T127" s="16"/>
       <c r="U127" s="17"/>
-      <c r="V127"/>
-    </row>
-    <row r="128" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -4121,9 +4046,8 @@
       <c r="S128" s="16"/>
       <c r="T128" s="16"/>
       <c r="U128" s="17"/>
-      <c r="V128"/>
-    </row>
-    <row r="129" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -4145,9 +4069,8 @@
       <c r="S129" s="16"/>
       <c r="T129" s="16"/>
       <c r="U129" s="17"/>
-      <c r="V129"/>
-    </row>
-    <row r="130" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -4169,9 +4092,8 @@
       <c r="S130" s="16"/>
       <c r="T130" s="16"/>
       <c r="U130" s="17"/>
-      <c r="V130"/>
-    </row>
-    <row r="131" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -4189,13 +4111,9 @@
       <c r="O131" s="16"/>
       <c r="P131" s="18"/>
       <c r="Q131" s="17"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="6"/>
-      <c r="T131" s="6"/>
       <c r="U131" s="17"/>
-      <c r="V131"/>
-    </row>
-    <row r="132" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -4213,13 +4131,9 @@
       <c r="O132" s="16"/>
       <c r="P132" s="18"/>
       <c r="Q132" s="17"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6"/>
-      <c r="T132" s="6"/>
       <c r="U132" s="17"/>
-      <c r="V132"/>
-    </row>
-    <row r="133" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -4237,13 +4151,9 @@
       <c r="O133" s="16"/>
       <c r="P133" s="18"/>
       <c r="Q133" s="17"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6"/>
       <c r="U133" s="17"/>
-      <c r="V133"/>
-    </row>
-    <row r="134" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -4261,13 +4171,9 @@
       <c r="O134" s="16"/>
       <c r="P134" s="18"/>
       <c r="Q134" s="17"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
       <c r="U134" s="17"/>
-      <c r="V134"/>
-    </row>
-    <row r="135" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -4285,13 +4191,9 @@
       <c r="O135" s="16"/>
       <c r="P135" s="18"/>
       <c r="Q135" s="17"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
       <c r="U135" s="17"/>
-      <c r="V135"/>
-    </row>
-    <row r="136" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -4309,13 +4211,9 @@
       <c r="O136" s="16"/>
       <c r="P136" s="18"/>
       <c r="Q136" s="17"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-      <c r="T136" s="6"/>
       <c r="U136" s="17"/>
-      <c r="V136"/>
-    </row>
-    <row r="137" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -4333,13 +4231,9 @@
       <c r="O137" s="16"/>
       <c r="P137" s="18"/>
       <c r="Q137" s="17"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
       <c r="U137" s="17"/>
-      <c r="V137"/>
-    </row>
-    <row r="138" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -4357,13 +4251,9 @@
       <c r="O138" s="16"/>
       <c r="P138" s="18"/>
       <c r="Q138" s="17"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-      <c r="T138" s="6"/>
       <c r="U138" s="17"/>
-      <c r="V138"/>
-    </row>
-    <row r="139" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -4381,13 +4271,9 @@
       <c r="O139" s="16"/>
       <c r="P139" s="18"/>
       <c r="Q139" s="17"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
       <c r="U139" s="17"/>
-      <c r="V139"/>
-    </row>
-    <row r="140" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -4405,13 +4291,9 @@
       <c r="O140" s="16"/>
       <c r="P140" s="18"/>
       <c r="Q140" s="17"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-      <c r="T140" s="6"/>
       <c r="U140" s="17"/>
-      <c r="V140"/>
-    </row>
-    <row r="141" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -4429,13 +4311,9 @@
       <c r="O141" s="16"/>
       <c r="P141" s="18"/>
       <c r="Q141" s="17"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-      <c r="T141" s="6"/>
       <c r="U141" s="17"/>
-      <c r="V141"/>
-    </row>
-    <row r="142" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -4453,13 +4331,9 @@
       <c r="O142" s="16"/>
       <c r="P142" s="18"/>
       <c r="Q142" s="17"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
-      <c r="T142" s="6"/>
       <c r="U142" s="17"/>
-      <c r="V142"/>
-    </row>
-    <row r="143" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -4477,13 +4351,9 @@
       <c r="O143" s="16"/>
       <c r="P143" s="18"/>
       <c r="Q143" s="17"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
-      <c r="T143" s="6"/>
       <c r="U143" s="17"/>
-      <c r="V143"/>
-    </row>
-    <row r="144" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -4501,13 +4371,9 @@
       <c r="O144" s="16"/>
       <c r="P144" s="18"/>
       <c r="Q144" s="17"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-      <c r="T144" s="6"/>
       <c r="U144" s="17"/>
-      <c r="V144"/>
-    </row>
-    <row r="145" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -4525,13 +4391,9 @@
       <c r="O145" s="16"/>
       <c r="P145" s="18"/>
       <c r="Q145" s="17"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-      <c r="T145" s="6"/>
       <c r="U145" s="17"/>
-      <c r="V145"/>
-    </row>
-    <row r="146" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -4549,13 +4411,9 @@
       <c r="O146" s="16"/>
       <c r="P146" s="18"/>
       <c r="Q146" s="17"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-      <c r="T146" s="6"/>
       <c r="U146" s="17"/>
-      <c r="V146"/>
-    </row>
-    <row r="147" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -4573,13 +4431,9 @@
       <c r="O147" s="16"/>
       <c r="P147" s="18"/>
       <c r="Q147" s="17"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6"/>
-      <c r="T147" s="6"/>
       <c r="U147" s="17"/>
-      <c r="V147"/>
-    </row>
-    <row r="148" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -4597,13 +4451,9 @@
       <c r="O148" s="16"/>
       <c r="P148" s="18"/>
       <c r="Q148" s="17"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
       <c r="U148" s="17"/>
-      <c r="V148"/>
-    </row>
-    <row r="149" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -4621,13 +4471,9 @@
       <c r="O149" s="16"/>
       <c r="P149" s="18"/>
       <c r="Q149" s="17"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="6"/>
-      <c r="T149" s="6"/>
       <c r="U149" s="17"/>
-      <c r="V149"/>
-    </row>
-    <row r="150" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -4645,13 +4491,9 @@
       <c r="O150" s="16"/>
       <c r="P150" s="18"/>
       <c r="Q150" s="17"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
       <c r="U150" s="17"/>
-      <c r="V150"/>
-    </row>
-    <row r="151" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -4669,13 +4511,9 @@
       <c r="O151" s="16"/>
       <c r="P151" s="18"/>
       <c r="Q151" s="17"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="6"/>
-      <c r="T151" s="6"/>
       <c r="U151" s="17"/>
-      <c r="V151"/>
-    </row>
-    <row r="152" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -4693,13 +4531,9 @@
       <c r="O152" s="16"/>
       <c r="P152" s="18"/>
       <c r="Q152" s="17"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="6"/>
-      <c r="T152" s="6"/>
       <c r="U152" s="17"/>
-      <c r="V152"/>
-    </row>
-    <row r="153" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -4717,13 +4551,9 @@
       <c r="O153" s="16"/>
       <c r="P153" s="18"/>
       <c r="Q153" s="17"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="6"/>
-      <c r="T153" s="6"/>
       <c r="U153" s="17"/>
-      <c r="V153"/>
-    </row>
-    <row r="154" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -4741,13 +4571,9 @@
       <c r="O154" s="16"/>
       <c r="P154" s="18"/>
       <c r="Q154" s="17"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-      <c r="T154" s="6"/>
       <c r="U154" s="17"/>
-      <c r="V154"/>
-    </row>
-    <row r="155" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -4765,13 +4591,9 @@
       <c r="O155" s="16"/>
       <c r="P155" s="18"/>
       <c r="Q155" s="17"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6"/>
-      <c r="T155" s="6"/>
       <c r="U155" s="17"/>
-      <c r="V155"/>
-    </row>
-    <row r="156" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -4789,13 +4611,9 @@
       <c r="O156" s="16"/>
       <c r="P156" s="18"/>
       <c r="Q156" s="17"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6"/>
-      <c r="T156" s="6"/>
       <c r="U156" s="17"/>
-      <c r="V156"/>
-    </row>
-    <row r="157" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -4813,13 +4631,9 @@
       <c r="O157" s="16"/>
       <c r="P157" s="18"/>
       <c r="Q157" s="17"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-      <c r="T157" s="6"/>
       <c r="U157" s="17"/>
-      <c r="V157"/>
-    </row>
-    <row r="158" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -4837,13 +4651,9 @@
       <c r="O158" s="16"/>
       <c r="P158" s="18"/>
       <c r="Q158" s="17"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-      <c r="T158" s="6"/>
       <c r="U158" s="17"/>
-      <c r="V158"/>
-    </row>
-    <row r="159" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -4861,13 +4671,9 @@
       <c r="O159" s="16"/>
       <c r="P159" s="18"/>
       <c r="Q159" s="17"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-      <c r="T159" s="6"/>
       <c r="U159" s="17"/>
-      <c r="V159"/>
-    </row>
-    <row r="160" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -4885,13 +4691,9 @@
       <c r="O160" s="16"/>
       <c r="P160" s="18"/>
       <c r="Q160" s="17"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-      <c r="T160" s="6"/>
       <c r="U160" s="17"/>
-      <c r="V160"/>
-    </row>
-    <row r="161" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -4909,13 +4711,9 @@
       <c r="O161" s="16"/>
       <c r="P161" s="18"/>
       <c r="Q161" s="17"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-      <c r="T161" s="6"/>
       <c r="U161" s="17"/>
-      <c r="V161"/>
-    </row>
-    <row r="162" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -4933,13 +4731,9 @@
       <c r="O162" s="16"/>
       <c r="P162" s="18"/>
       <c r="Q162" s="17"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
-      <c r="T162" s="6"/>
       <c r="U162" s="17"/>
-      <c r="V162"/>
-    </row>
-    <row r="163" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -4957,13 +4751,9 @@
       <c r="O163" s="16"/>
       <c r="P163" s="18"/>
       <c r="Q163" s="17"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-      <c r="T163" s="6"/>
       <c r="U163" s="17"/>
-      <c r="V163"/>
-    </row>
-    <row r="164" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
@@ -4981,13 +4771,9 @@
       <c r="O164" s="16"/>
       <c r="P164" s="18"/>
       <c r="Q164" s="17"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-      <c r="T164" s="6"/>
       <c r="U164" s="17"/>
-      <c r="V164"/>
-    </row>
-    <row r="165" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -5005,112 +4791,12 @@
       <c r="O165" s="16"/>
       <c r="P165" s="18"/>
       <c r="Q165" s="17"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6"/>
-      <c r="T165" s="6"/>
       <c r="U165" s="17"/>
-      <c r="V165"/>
-    </row>
-    <row r="166" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6"/>
-      <c r="T166" s="6"/>
-      <c r="U166" s="5"/>
-      <c r="V166"/>
-    </row>
-    <row r="167" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6"/>
-      <c r="T167" s="6"/>
-      <c r="U167" s="5"/>
-      <c r="V167"/>
-    </row>
-    <row r="168" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="5"/>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6"/>
-      <c r="T168" s="6"/>
-      <c r="U168" s="5"/>
-      <c r="V168"/>
-    </row>
-    <row r="169" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="6"/>
-      <c r="T169" s="6"/>
-      <c r="U169" s="5"/>
-      <c r="V169"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T11:T1048576 T6:T7 G1:G1048576 I1:I1048576 T1:T2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T11:T1048576 T6:T7 T1:T2 H3:I3 G1:G1048576 I1:I2 I4:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
